--- a/Example_Files/Template; Compound Setup Table 8K Up to 48 Compunds 6 Point Dose.xlsx
+++ b/Example_Files/Template; Compound Setup Table 8K Up to 48 Compunds 6 Point Dose.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bfulroth/GitProjects/SPR_Create_Dotmatics_ADLP_File/Example_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2E9CBB-A702-E74D-81DC-BDECA1372FF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6FB508-C243-474B-98EF-699AA38499EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32640" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="5080" windowWidth="32640" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - Table 1-1-1-1" sheetId="1" r:id="rId1"/>
@@ -335,7 +335,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -365,6 +365,13 @@
       <color indexed="8"/>
       <name val="Calibri (Body)_x0000_"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -709,7 +716,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -908,6 +915,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2068,8 +2078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -2085,13 +2095,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="14.75" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="67" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -2100,10 +2110,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="67" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -2121,13 +2131,13 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="67" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="2" t="s">

--- a/Example_Files/Template; Compound Setup Table 8K Up to 48 Compunds 6 Point Dose.xlsx
+++ b/Example_Files/Template; Compound Setup Table 8K Up to 48 Compunds 6 Point Dose.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bfulroth/GitProjects/SPR_Create_Dotmatics_ADLP_File/Example_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6FB508-C243-474B-98EF-699AA38499EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0BC519-8AAA-E64F-AFC8-94D1E13BD232}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="5080" windowWidth="32640" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="2920" windowWidth="32640" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - Table 1-1-1-1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="104">
   <si>
     <t>Broad ID</t>
   </si>
@@ -329,6 +329,9 @@
   </si>
   <si>
     <t>P24</t>
+  </si>
+  <si>
+    <t>Plate_Barcode</t>
   </si>
 </sst>
 </file>
@@ -2076,10 +2079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV49"/>
+  <dimension ref="A1:IW49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:O1"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -2088,13 +2091,14 @@
     <col min="2" max="2" width="26.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="18" width="16.83203125" style="1" customWidth="1"/>
-    <col min="19" max="256" width="10.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="19" width="16.83203125" style="1" customWidth="1"/>
+    <col min="20" max="257" width="10.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="14.75" customHeight="1">
+    <row r="1" spans="1:19" ht="14.75" customHeight="1">
       <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
@@ -2110,47 +2114,50 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="67" t="s">
+      <c r="H1" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="67" t="s">
+      <c r="N1" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="67" t="s">
+      <c r="O1" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="67" t="s">
+      <c r="P1" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
@@ -2164,51 +2171,52 @@
       <c r="E2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="7">
-        <v>1206274707</v>
-      </c>
+      <c r="F2" s="6"/>
       <c r="G2" s="7">
         <v>1206274707</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7">
+        <v>1206274707</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="7">
+      <c r="J2" s="7">
         <v>10</v>
       </c>
-      <c r="J2" s="9">
-        <f>I2*1000</f>
+      <c r="K2" s="9">
+        <f>J2*1000</f>
         <v>10000</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="9">
+      <c r="M2" s="9">
         <v>200</v>
       </c>
-      <c r="M2" s="9">
+      <c r="N2" s="9">
         <v>20</v>
       </c>
-      <c r="N2" s="9">
+      <c r="O2" s="9">
         <v>2</v>
       </c>
-      <c r="O2" s="7">
+      <c r="P2" s="7">
         <v>6</v>
       </c>
-      <c r="P2" s="7">
-        <f t="shared" ref="P2:P49" si="0">L2-Q2-R2</f>
+      <c r="Q2" s="7">
+        <f t="shared" ref="Q2:Q49" si="0">M2-R2-S2</f>
         <v>190</v>
       </c>
-      <c r="Q2" s="11">
-        <f t="shared" ref="Q2:Q49" si="1">(M2*L2)/J2</f>
+      <c r="R2" s="11">
+        <f t="shared" ref="R2:R49" si="1">(N2*M2)/K2</f>
         <v>0.4</v>
       </c>
-      <c r="R2" s="12">
-        <f t="shared" ref="R2:R49" si="2">10-Q2</f>
+      <c r="S2" s="12">
+        <f t="shared" ref="S2:S49" si="2">10-R2</f>
         <v>9.6</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="13" t="s">
         <v>23</v>
       </c>
@@ -2222,50 +2230,51 @@
       <c r="E3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="15">
-        <v>1196295332</v>
-      </c>
+      <c r="F3" s="14"/>
       <c r="G3" s="15">
         <v>1196295332</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="15">
+        <v>1196295332</v>
+      </c>
+      <c r="I3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="15">
+      <c r="J3" s="15">
         <v>10</v>
       </c>
-      <c r="J3" s="17">
+      <c r="K3" s="17">
         <v>10000</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="L3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="17">
+      <c r="M3" s="17">
         <v>200</v>
       </c>
-      <c r="M3" s="17">
+      <c r="N3" s="17">
         <v>50</v>
       </c>
-      <c r="N3" s="17">
+      <c r="O3" s="17">
         <v>2</v>
       </c>
-      <c r="O3" s="15">
+      <c r="P3" s="15">
         <v>6</v>
       </c>
-      <c r="P3" s="15">
+      <c r="Q3" s="15">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="Q3" s="19">
+      <c r="R3" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R3" s="20">
+      <c r="S3" s="20">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" s="13" t="s">
         <v>27</v>
       </c>
@@ -2279,50 +2288,51 @@
       <c r="E4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="22">
-        <v>1196295245</v>
-      </c>
+      <c r="F4" s="21"/>
       <c r="G4" s="22">
         <v>1196295245</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="22">
+        <v>1196295245</v>
+      </c>
+      <c r="I4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="15">
+      <c r="J4" s="15">
         <v>10</v>
       </c>
-      <c r="J4" s="17">
+      <c r="K4" s="17">
         <v>10000</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="L4" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="17">
+      <c r="M4" s="17">
         <v>200</v>
       </c>
-      <c r="M4" s="17">
+      <c r="N4" s="17">
         <v>50</v>
       </c>
-      <c r="N4" s="17">
+      <c r="O4" s="17">
         <v>2</v>
       </c>
-      <c r="O4" s="15">
+      <c r="P4" s="15">
         <v>6</v>
       </c>
-      <c r="P4" s="15">
+      <c r="Q4" s="15">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="Q4" s="19">
+      <c r="R4" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R4" s="20">
+      <c r="S4" s="20">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" s="13" t="s">
         <v>30</v>
       </c>
@@ -2336,50 +2346,51 @@
       <c r="E5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="15">
-        <v>1196295253</v>
-      </c>
+      <c r="F5" s="14"/>
       <c r="G5" s="15">
         <v>1196295253</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="15">
+        <v>1196295253</v>
+      </c>
+      <c r="I5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="15">
+      <c r="J5" s="15">
         <v>10</v>
       </c>
-      <c r="J5" s="17">
+      <c r="K5" s="17">
         <v>10000</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="L5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="17">
+      <c r="M5" s="17">
         <v>200</v>
       </c>
-      <c r="M5" s="17">
+      <c r="N5" s="17">
         <v>50</v>
       </c>
-      <c r="N5" s="17">
+      <c r="O5" s="17">
         <v>2</v>
       </c>
-      <c r="O5" s="15">
+      <c r="P5" s="15">
         <v>6</v>
       </c>
-      <c r="P5" s="15">
+      <c r="Q5" s="15">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="Q5" s="19">
+      <c r="R5" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R5" s="20">
+      <c r="S5" s="20">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" s="13" t="s">
         <v>33</v>
       </c>
@@ -2393,50 +2404,51 @@
       <c r="E6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="15">
-        <v>1196295261</v>
-      </c>
+      <c r="F6" s="14"/>
       <c r="G6" s="15">
         <v>1196295261</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="15">
+        <v>1196295261</v>
+      </c>
+      <c r="I6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="15">
+      <c r="J6" s="15">
         <v>10</v>
       </c>
-      <c r="J6" s="17">
+      <c r="K6" s="17">
         <v>10000</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="L6" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="17">
+      <c r="M6" s="17">
         <v>200</v>
       </c>
-      <c r="M6" s="17">
+      <c r="N6" s="17">
         <v>50</v>
       </c>
-      <c r="N6" s="17">
+      <c r="O6" s="17">
         <v>2</v>
       </c>
-      <c r="O6" s="15">
+      <c r="P6" s="15">
         <v>6</v>
       </c>
-      <c r="P6" s="15">
+      <c r="Q6" s="15">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="Q6" s="19">
+      <c r="R6" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R6" s="20">
+      <c r="S6" s="20">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7" s="13" t="s">
         <v>18</v>
       </c>
@@ -2450,51 +2462,52 @@
       <c r="E7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="15">
-        <v>1206274707</v>
-      </c>
+      <c r="F7" s="14"/>
       <c r="G7" s="15">
         <v>1206274707</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="15">
+        <v>1206274707</v>
+      </c>
+      <c r="I7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="15">
+      <c r="J7" s="15">
         <v>10</v>
       </c>
-      <c r="J7" s="17">
-        <f>I7*1000</f>
+      <c r="K7" s="17">
+        <f>J7*1000</f>
         <v>10000</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="L7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="17">
+      <c r="M7" s="17">
         <v>200</v>
       </c>
-      <c r="M7" s="17">
+      <c r="N7" s="17">
         <v>50</v>
       </c>
-      <c r="N7" s="17">
+      <c r="O7" s="17">
         <v>2</v>
       </c>
-      <c r="O7" s="15">
+      <c r="P7" s="15">
         <v>6</v>
       </c>
-      <c r="P7" s="15">
+      <c r="Q7" s="15">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="Q7" s="19">
+      <c r="R7" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R7" s="20">
+      <c r="S7" s="20">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" s="13" t="s">
         <v>37</v>
       </c>
@@ -2508,50 +2521,51 @@
       <c r="E8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="15">
-        <v>1196295269</v>
-      </c>
+      <c r="F8" s="14"/>
       <c r="G8" s="15">
         <v>1196295269</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="15">
+        <v>1196295269</v>
+      </c>
+      <c r="I8" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="15">
+      <c r="J8" s="15">
         <v>10</v>
       </c>
-      <c r="J8" s="17">
+      <c r="K8" s="17">
         <v>10000</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="L8" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="17">
+      <c r="M8" s="17">
         <v>200</v>
       </c>
-      <c r="M8" s="17">
+      <c r="N8" s="17">
         <v>50</v>
       </c>
-      <c r="N8" s="17">
+      <c r="O8" s="17">
         <v>2</v>
       </c>
-      <c r="O8" s="15">
+      <c r="P8" s="15">
         <v>6</v>
       </c>
-      <c r="P8" s="15">
+      <c r="Q8" s="15">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="Q8" s="19">
+      <c r="R8" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R8" s="20">
+      <c r="S8" s="20">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" s="23" t="s">
         <v>40</v>
       </c>
@@ -2565,51 +2579,52 @@
       <c r="E9" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="25">
-        <v>1196295277</v>
-      </c>
+      <c r="F9" s="24"/>
       <c r="G9" s="25">
         <v>1196295277</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="25">
+        <v>1196295277</v>
+      </c>
+      <c r="I9" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="25">
+      <c r="J9" s="25">
         <v>10</v>
       </c>
-      <c r="J9" s="27">
-        <f>I9*1000</f>
+      <c r="K9" s="27">
+        <f>J9*1000</f>
         <v>10000</v>
       </c>
-      <c r="K9" s="28" t="s">
+      <c r="L9" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="L9" s="27">
+      <c r="M9" s="27">
         <v>200</v>
       </c>
-      <c r="M9" s="27">
+      <c r="N9" s="27">
         <v>50</v>
       </c>
-      <c r="N9" s="27">
+      <c r="O9" s="27">
         <v>2</v>
       </c>
-      <c r="O9" s="25">
+      <c r="P9" s="25">
         <v>6</v>
       </c>
-      <c r="P9" s="25">
+      <c r="Q9" s="25">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="Q9" s="29">
+      <c r="R9" s="29">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R9" s="30">
+      <c r="S9" s="30">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" s="5" t="s">
         <v>43</v>
       </c>
@@ -2621,50 +2636,51 @@
       <c r="E10" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="34">
-        <v>1196295489</v>
-      </c>
+      <c r="F10" s="33"/>
       <c r="G10" s="34">
         <v>1196295489</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="34">
+        <v>1196295489</v>
+      </c>
+      <c r="I10" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="I10" s="7">
+      <c r="J10" s="7">
         <v>10</v>
       </c>
-      <c r="J10" s="9">
+      <c r="K10" s="9">
         <v>10000</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="L10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="L10" s="9">
+      <c r="M10" s="9">
         <v>200</v>
       </c>
-      <c r="M10" s="9">
+      <c r="N10" s="9">
         <v>50</v>
       </c>
-      <c r="N10" s="9">
+      <c r="O10" s="9">
         <v>2</v>
       </c>
-      <c r="O10" s="7">
+      <c r="P10" s="7">
         <v>6</v>
       </c>
-      <c r="P10" s="7">
+      <c r="Q10" s="7">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="R10" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R10" s="12">
+      <c r="S10" s="12">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" s="13" t="s">
         <v>46</v>
       </c>
@@ -2676,50 +2692,51 @@
       <c r="E11" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="22">
-        <v>1196295443</v>
-      </c>
+      <c r="F11" s="21"/>
       <c r="G11" s="22">
         <v>1196295443</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="22">
+        <v>1196295443</v>
+      </c>
+      <c r="I11" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="15">
+      <c r="J11" s="15">
         <v>10</v>
       </c>
-      <c r="J11" s="17">
+      <c r="K11" s="17">
         <v>10000</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="L11" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="L11" s="17">
+      <c r="M11" s="17">
         <v>200</v>
       </c>
-      <c r="M11" s="17">
+      <c r="N11" s="17">
         <v>20</v>
       </c>
-      <c r="N11" s="17">
+      <c r="O11" s="17">
         <v>2</v>
       </c>
-      <c r="O11" s="15">
+      <c r="P11" s="15">
         <v>6</v>
       </c>
-      <c r="P11" s="15">
+      <c r="Q11" s="15">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="Q11" s="19">
+      <c r="R11" s="19">
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="R11" s="20">
+      <c r="S11" s="20">
         <f t="shared" si="2"/>
         <v>9.6</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" s="13" t="s">
         <v>49</v>
       </c>
@@ -2731,50 +2748,51 @@
       <c r="E12" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="22">
-        <v>1196295451</v>
-      </c>
+      <c r="F12" s="21"/>
       <c r="G12" s="22">
         <v>1196295451</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="22">
+        <v>1196295451</v>
+      </c>
+      <c r="I12" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="15">
+      <c r="J12" s="15">
         <v>10</v>
       </c>
-      <c r="J12" s="17">
+      <c r="K12" s="17">
         <v>10000</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="L12" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="L12" s="17">
+      <c r="M12" s="17">
         <v>200</v>
       </c>
-      <c r="M12" s="17">
+      <c r="N12" s="17">
         <v>50</v>
       </c>
-      <c r="N12" s="17">
+      <c r="O12" s="17">
         <v>2</v>
       </c>
-      <c r="O12" s="15">
+      <c r="P12" s="15">
         <v>6</v>
       </c>
-      <c r="P12" s="15">
+      <c r="Q12" s="15">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="Q12" s="19">
+      <c r="R12" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R12" s="20">
+      <c r="S12" s="20">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13" s="13" t="s">
         <v>53</v>
       </c>
@@ -2786,50 +2804,51 @@
       <c r="E13" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="22">
-        <v>1196295459</v>
-      </c>
+      <c r="F13" s="21"/>
       <c r="G13" s="22">
         <v>1196295459</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="22">
+        <v>1196295459</v>
+      </c>
+      <c r="I13" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="15">
+      <c r="J13" s="15">
         <v>10</v>
       </c>
-      <c r="J13" s="17">
+      <c r="K13" s="17">
         <v>10000</v>
       </c>
-      <c r="K13" s="18" t="s">
+      <c r="L13" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="L13" s="17">
+      <c r="M13" s="17">
         <v>200</v>
       </c>
-      <c r="M13" s="17">
+      <c r="N13" s="17">
         <v>50</v>
       </c>
-      <c r="N13" s="17">
+      <c r="O13" s="17">
         <v>2</v>
       </c>
-      <c r="O13" s="15">
+      <c r="P13" s="15">
         <v>6</v>
       </c>
-      <c r="P13" s="15">
+      <c r="Q13" s="15">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="Q13" s="19">
+      <c r="R13" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R13" s="20">
+      <c r="S13" s="20">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14" s="13" t="s">
         <v>18</v>
       </c>
@@ -2843,51 +2862,52 @@
       <c r="E14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="15">
-        <v>1206274707</v>
-      </c>
+      <c r="F14" s="14"/>
       <c r="G14" s="15">
         <v>1206274707</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="15">
+        <v>1206274707</v>
+      </c>
+      <c r="I14" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="15">
+      <c r="J14" s="15">
         <v>10</v>
       </c>
-      <c r="J14" s="17">
-        <f>I14*1000</f>
+      <c r="K14" s="17">
+        <f>J14*1000</f>
         <v>10000</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="L14" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="L14" s="17">
+      <c r="M14" s="17">
         <v>200</v>
       </c>
-      <c r="M14" s="17">
+      <c r="N14" s="17">
         <v>50</v>
       </c>
-      <c r="N14" s="17">
+      <c r="O14" s="17">
         <v>2</v>
       </c>
-      <c r="O14" s="15">
+      <c r="P14" s="15">
         <v>6</v>
       </c>
-      <c r="P14" s="15">
+      <c r="Q14" s="15">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="Q14" s="19">
+      <c r="R14" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R14" s="20">
+      <c r="S14" s="20">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="A15" s="13" t="s">
         <v>18</v>
       </c>
@@ -2901,51 +2921,52 @@
       <c r="E15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="15">
-        <v>1206274707</v>
-      </c>
+      <c r="F15" s="14"/>
       <c r="G15" s="15">
         <v>1206274707</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="15">
+        <v>1206274707</v>
+      </c>
+      <c r="I15" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="15">
+      <c r="J15" s="15">
         <v>10</v>
       </c>
-      <c r="J15" s="17">
-        <f>I15*1000</f>
+      <c r="K15" s="17">
+        <f>J15*1000</f>
         <v>10000</v>
       </c>
-      <c r="K15" s="18" t="s">
+      <c r="L15" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="L15" s="17">
+      <c r="M15" s="17">
         <v>200</v>
       </c>
-      <c r="M15" s="17">
+      <c r="N15" s="17">
         <v>50</v>
       </c>
-      <c r="N15" s="17">
+      <c r="O15" s="17">
         <v>2</v>
       </c>
-      <c r="O15" s="15">
+      <c r="P15" s="15">
         <v>6</v>
       </c>
-      <c r="P15" s="15">
+      <c r="Q15" s="15">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="Q15" s="19">
+      <c r="R15" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R15" s="20">
+      <c r="S15" s="20">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16" s="13" t="s">
         <v>37</v>
       </c>
@@ -2959,50 +2980,51 @@
       <c r="E16" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="15">
-        <v>1196295269</v>
-      </c>
+      <c r="F16" s="14"/>
       <c r="G16" s="15">
         <v>1196295269</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="15">
+        <v>1196295269</v>
+      </c>
+      <c r="I16" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="15">
+      <c r="J16" s="15">
         <v>10</v>
       </c>
-      <c r="J16" s="17">
+      <c r="K16" s="17">
         <v>10000</v>
       </c>
-      <c r="K16" s="18" t="s">
+      <c r="L16" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="L16" s="17">
+      <c r="M16" s="17">
         <v>200</v>
       </c>
-      <c r="M16" s="17">
+      <c r="N16" s="17">
         <v>50</v>
       </c>
-      <c r="N16" s="17">
+      <c r="O16" s="17">
         <v>2</v>
       </c>
-      <c r="O16" s="15">
+      <c r="P16" s="15">
         <v>6</v>
       </c>
-      <c r="P16" s="15">
+      <c r="Q16" s="15">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="Q16" s="19">
+      <c r="R16" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R16" s="20">
+      <c r="S16" s="20">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:19">
       <c r="A17" s="37" t="s">
         <v>40</v>
       </c>
@@ -3016,51 +3038,52 @@
       <c r="E17" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="39">
-        <v>1196295277</v>
-      </c>
+      <c r="F17" s="38"/>
       <c r="G17" s="39">
         <v>1196295277</v>
       </c>
-      <c r="H17" s="38" t="s">
+      <c r="H17" s="39">
+        <v>1196295277</v>
+      </c>
+      <c r="I17" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="39">
+      <c r="J17" s="39">
         <v>10</v>
       </c>
-      <c r="J17" s="41">
-        <f>I17*1000</f>
+      <c r="K17" s="41">
+        <f>J17*1000</f>
         <v>10000</v>
       </c>
-      <c r="K17" s="42" t="s">
+      <c r="L17" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="L17" s="41">
+      <c r="M17" s="41">
         <v>200</v>
       </c>
-      <c r="M17" s="41">
+      <c r="N17" s="41">
         <v>50</v>
       </c>
-      <c r="N17" s="41">
+      <c r="O17" s="41">
         <v>2</v>
       </c>
-      <c r="O17" s="39">
+      <c r="P17" s="39">
         <v>6</v>
       </c>
-      <c r="P17" s="39">
+      <c r="Q17" s="39">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="Q17" s="43">
+      <c r="R17" s="43">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R17" s="44">
+      <c r="S17" s="44">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:19">
       <c r="A18" s="45" t="s">
         <v>43</v>
       </c>
@@ -3072,50 +3095,51 @@
       <c r="E18" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="50">
-        <v>1196295489</v>
-      </c>
+      <c r="F18" s="49"/>
       <c r="G18" s="50">
         <v>1196295489</v>
       </c>
-      <c r="H18" s="49" t="s">
+      <c r="H18" s="50">
+        <v>1196295489</v>
+      </c>
+      <c r="I18" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="I18" s="47">
+      <c r="J18" s="47">
         <v>10</v>
       </c>
-      <c r="J18" s="51">
+      <c r="K18" s="51">
         <v>10000</v>
       </c>
-      <c r="K18" s="52" t="s">
+      <c r="L18" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="L18" s="51">
+      <c r="M18" s="51">
         <v>200</v>
       </c>
-      <c r="M18" s="51">
+      <c r="N18" s="51">
         <v>50</v>
       </c>
-      <c r="N18" s="51">
+      <c r="O18" s="51">
         <v>2</v>
       </c>
-      <c r="O18" s="47">
+      <c r="P18" s="47">
         <v>6</v>
       </c>
-      <c r="P18" s="47">
+      <c r="Q18" s="47">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="Q18" s="53">
+      <c r="R18" s="53">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R18" s="54">
+      <c r="S18" s="54">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:19">
       <c r="A19" s="55" t="s">
         <v>46</v>
       </c>
@@ -3127,50 +3151,51 @@
       <c r="E19" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="22">
-        <v>1196295443</v>
-      </c>
+      <c r="F19" s="21"/>
       <c r="G19" s="22">
         <v>1196295443</v>
       </c>
-      <c r="H19" s="21" t="s">
+      <c r="H19" s="22">
+        <v>1196295443</v>
+      </c>
+      <c r="I19" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="I19" s="15">
+      <c r="J19" s="15">
         <v>10</v>
       </c>
-      <c r="J19" s="17">
+      <c r="K19" s="17">
         <v>10000</v>
       </c>
-      <c r="K19" s="18" t="s">
+      <c r="L19" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="L19" s="17">
+      <c r="M19" s="17">
         <v>200</v>
       </c>
-      <c r="M19" s="17">
+      <c r="N19" s="17">
         <v>50</v>
       </c>
-      <c r="N19" s="17">
+      <c r="O19" s="17">
         <v>2</v>
       </c>
-      <c r="O19" s="15">
+      <c r="P19" s="15">
         <v>6</v>
       </c>
-      <c r="P19" s="15">
+      <c r="Q19" s="15">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="Q19" s="19">
+      <c r="R19" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R19" s="56">
+      <c r="S19" s="56">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:19">
       <c r="A20" s="55" t="s">
         <v>49</v>
       </c>
@@ -3182,50 +3207,51 @@
       <c r="E20" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="22">
-        <v>1196295451</v>
-      </c>
+      <c r="F20" s="21"/>
       <c r="G20" s="22">
         <v>1196295451</v>
       </c>
-      <c r="H20" s="21" t="s">
+      <c r="H20" s="22">
+        <v>1196295451</v>
+      </c>
+      <c r="I20" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="I20" s="15">
+      <c r="J20" s="15">
         <v>10</v>
       </c>
-      <c r="J20" s="17">
+      <c r="K20" s="17">
         <v>10000</v>
       </c>
-      <c r="K20" s="18" t="s">
+      <c r="L20" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="L20" s="17">
+      <c r="M20" s="17">
         <v>200</v>
       </c>
-      <c r="M20" s="17">
+      <c r="N20" s="17">
         <v>20</v>
       </c>
-      <c r="N20" s="17">
+      <c r="O20" s="17">
         <v>2</v>
       </c>
-      <c r="O20" s="15">
+      <c r="P20" s="15">
         <v>6</v>
       </c>
-      <c r="P20" s="15">
+      <c r="Q20" s="15">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="Q20" s="19">
+      <c r="R20" s="19">
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="R20" s="56">
+      <c r="S20" s="56">
         <f t="shared" si="2"/>
         <v>9.6</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:19">
       <c r="A21" s="55" t="s">
         <v>53</v>
       </c>
@@ -3237,50 +3263,51 @@
       <c r="E21" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="22">
-        <v>1196295459</v>
-      </c>
+      <c r="F21" s="21"/>
       <c r="G21" s="22">
         <v>1196295459</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="H21" s="22">
+        <v>1196295459</v>
+      </c>
+      <c r="I21" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="15">
+      <c r="J21" s="15">
         <v>10</v>
       </c>
-      <c r="J21" s="17">
+      <c r="K21" s="17">
         <v>10000</v>
       </c>
-      <c r="K21" s="18" t="s">
+      <c r="L21" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="L21" s="17">
+      <c r="M21" s="17">
         <v>200</v>
       </c>
-      <c r="M21" s="17">
+      <c r="N21" s="17">
         <v>50</v>
       </c>
-      <c r="N21" s="17">
+      <c r="O21" s="17">
         <v>2</v>
       </c>
-      <c r="O21" s="15">
+      <c r="P21" s="15">
         <v>6</v>
       </c>
-      <c r="P21" s="15">
+      <c r="Q21" s="15">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="Q21" s="19">
+      <c r="R21" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R21" s="56">
+      <c r="S21" s="56">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:19">
       <c r="A22" s="55" t="s">
         <v>18</v>
       </c>
@@ -3294,51 +3321,52 @@
       <c r="E22" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="15">
-        <v>1206274707</v>
-      </c>
+      <c r="F22" s="14"/>
       <c r="G22" s="15">
         <v>1206274707</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="H22" s="15">
+        <v>1206274707</v>
+      </c>
+      <c r="I22" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="15">
+      <c r="J22" s="15">
         <v>10</v>
       </c>
-      <c r="J22" s="17">
-        <f>I22*1000</f>
+      <c r="K22" s="17">
+        <f>J22*1000</f>
         <v>10000</v>
       </c>
-      <c r="K22" s="18" t="s">
+      <c r="L22" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="L22" s="17">
+      <c r="M22" s="17">
         <v>200</v>
       </c>
-      <c r="M22" s="17">
+      <c r="N22" s="17">
         <v>50</v>
       </c>
-      <c r="N22" s="17">
+      <c r="O22" s="17">
         <v>2</v>
       </c>
-      <c r="O22" s="15">
+      <c r="P22" s="15">
         <v>6</v>
       </c>
-      <c r="P22" s="15">
+      <c r="Q22" s="15">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="Q22" s="19">
+      <c r="R22" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R22" s="56">
+      <c r="S22" s="56">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:19">
       <c r="A23" s="55" t="s">
         <v>18</v>
       </c>
@@ -3352,51 +3380,52 @@
       <c r="E23" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="15">
-        <v>1206274707</v>
-      </c>
+      <c r="F23" s="14"/>
       <c r="G23" s="15">
         <v>1206274707</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H23" s="15">
+        <v>1206274707</v>
+      </c>
+      <c r="I23" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="15">
+      <c r="J23" s="15">
         <v>10</v>
       </c>
-      <c r="J23" s="17">
-        <f>I23*1000</f>
+      <c r="K23" s="17">
+        <f>J23*1000</f>
         <v>10000</v>
       </c>
-      <c r="K23" s="18" t="s">
+      <c r="L23" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="L23" s="17">
+      <c r="M23" s="17">
         <v>200</v>
       </c>
-      <c r="M23" s="17">
+      <c r="N23" s="17">
         <v>50</v>
       </c>
-      <c r="N23" s="17">
+      <c r="O23" s="17">
         <v>2</v>
       </c>
-      <c r="O23" s="15">
+      <c r="P23" s="15">
         <v>6</v>
       </c>
-      <c r="P23" s="15">
+      <c r="Q23" s="15">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="Q23" s="19">
+      <c r="R23" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R23" s="56">
+      <c r="S23" s="56">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:19">
       <c r="A24" s="55" t="s">
         <v>43</v>
       </c>
@@ -3408,50 +3437,51 @@
       <c r="E24" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="22">
-        <v>1196295489</v>
-      </c>
+      <c r="F24" s="21"/>
       <c r="G24" s="22">
         <v>1196295489</v>
       </c>
-      <c r="H24" s="21" t="s">
+      <c r="H24" s="22">
+        <v>1196295489</v>
+      </c>
+      <c r="I24" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="I24" s="15">
+      <c r="J24" s="15">
         <v>10</v>
       </c>
-      <c r="J24" s="17">
+      <c r="K24" s="17">
         <v>10000</v>
       </c>
-      <c r="K24" s="18" t="s">
+      <c r="L24" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="L24" s="17">
+      <c r="M24" s="17">
         <v>200</v>
       </c>
-      <c r="M24" s="17">
+      <c r="N24" s="17">
         <v>50</v>
       </c>
-      <c r="N24" s="17">
+      <c r="O24" s="17">
         <v>2</v>
       </c>
-      <c r="O24" s="15">
+      <c r="P24" s="15">
         <v>6</v>
       </c>
-      <c r="P24" s="15">
+      <c r="Q24" s="15">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="Q24" s="19">
+      <c r="R24" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R24" s="56">
+      <c r="S24" s="56">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:19">
       <c r="A25" s="57" t="s">
         <v>46</v>
       </c>
@@ -3463,50 +3493,51 @@
       <c r="E25" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="61">
-        <v>1196295443</v>
-      </c>
+      <c r="F25" s="60"/>
       <c r="G25" s="61">
         <v>1196295443</v>
       </c>
-      <c r="H25" s="60" t="s">
+      <c r="H25" s="61">
+        <v>1196295443</v>
+      </c>
+      <c r="I25" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="I25" s="39">
+      <c r="J25" s="39">
         <v>10</v>
       </c>
-      <c r="J25" s="41">
+      <c r="K25" s="41">
         <v>10000</v>
       </c>
-      <c r="K25" s="42" t="s">
+      <c r="L25" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="L25" s="41">
+      <c r="M25" s="41">
         <v>200</v>
       </c>
-      <c r="M25" s="41">
+      <c r="N25" s="41">
         <v>50</v>
       </c>
-      <c r="N25" s="41">
+      <c r="O25" s="41">
         <v>2</v>
       </c>
-      <c r="O25" s="39">
+      <c r="P25" s="39">
         <v>6</v>
       </c>
-      <c r="P25" s="39">
+      <c r="Q25" s="39">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="Q25" s="43">
+      <c r="R25" s="43">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R25" s="62">
+      <c r="S25" s="62">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:19">
       <c r="A26" s="63" t="s">
         <v>68</v>
       </c>
@@ -3520,50 +3551,51 @@
       <c r="E26" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="47">
-        <v>1196295474</v>
-      </c>
+      <c r="F26" s="64"/>
       <c r="G26" s="47">
         <v>1196295474</v>
       </c>
-      <c r="H26" s="64" t="s">
+      <c r="H26" s="47">
+        <v>1196295474</v>
+      </c>
+      <c r="I26" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="I26" s="47">
+      <c r="J26" s="47">
         <v>10</v>
       </c>
-      <c r="J26" s="51">
+      <c r="K26" s="51">
         <v>10000</v>
       </c>
-      <c r="K26" s="52" t="s">
+      <c r="L26" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="L26" s="51">
+      <c r="M26" s="51">
         <v>200</v>
       </c>
-      <c r="M26" s="51">
+      <c r="N26" s="51">
         <v>50</v>
       </c>
-      <c r="N26" s="51">
+      <c r="O26" s="51">
         <v>2</v>
       </c>
-      <c r="O26" s="47">
+      <c r="P26" s="47">
         <v>6</v>
       </c>
-      <c r="P26" s="47">
+      <c r="Q26" s="47">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="Q26" s="53">
+      <c r="R26" s="53">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R26" s="66">
+      <c r="S26" s="66">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:19">
       <c r="A27" s="13" t="s">
         <v>70</v>
       </c>
@@ -3575,50 +3607,51 @@
       <c r="E27" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="22">
-        <v>1196295482</v>
-      </c>
+      <c r="F27" s="21"/>
       <c r="G27" s="22">
         <v>1196295482</v>
       </c>
-      <c r="H27" s="21" t="s">
+      <c r="H27" s="22">
+        <v>1196295482</v>
+      </c>
+      <c r="I27" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="I27" s="15">
+      <c r="J27" s="15">
         <v>10</v>
       </c>
-      <c r="J27" s="17">
+      <c r="K27" s="17">
         <v>10000</v>
       </c>
-      <c r="K27" s="18" t="s">
+      <c r="L27" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="L27" s="17">
+      <c r="M27" s="17">
         <v>200</v>
       </c>
-      <c r="M27" s="17">
+      <c r="N27" s="17">
         <v>50</v>
       </c>
-      <c r="N27" s="17">
+      <c r="O27" s="17">
         <v>2</v>
       </c>
-      <c r="O27" s="15">
+      <c r="P27" s="15">
         <v>6</v>
       </c>
-      <c r="P27" s="15">
+      <c r="Q27" s="15">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="Q27" s="19">
+      <c r="R27" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R27" s="20">
+      <c r="S27" s="20">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:19">
       <c r="A28" s="13" t="s">
         <v>18</v>
       </c>
@@ -3632,51 +3665,52 @@
       <c r="E28" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="15">
-        <v>1206274707</v>
-      </c>
+      <c r="F28" s="14"/>
       <c r="G28" s="15">
         <v>1206274707</v>
       </c>
-      <c r="H28" s="14" t="s">
+      <c r="H28" s="15">
+        <v>1206274707</v>
+      </c>
+      <c r="I28" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I28" s="15">
+      <c r="J28" s="15">
         <v>10</v>
       </c>
-      <c r="J28" s="17">
-        <f>I28*1000</f>
+      <c r="K28" s="17">
+        <f>J28*1000</f>
         <v>10000</v>
       </c>
-      <c r="K28" s="18" t="s">
+      <c r="L28" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="L28" s="17">
+      <c r="M28" s="17">
         <v>200</v>
       </c>
-      <c r="M28" s="17">
+      <c r="N28" s="17">
         <v>50</v>
       </c>
-      <c r="N28" s="17">
+      <c r="O28" s="17">
         <v>2</v>
       </c>
-      <c r="O28" s="15">
+      <c r="P28" s="15">
         <v>6</v>
       </c>
-      <c r="P28" s="15">
+      <c r="Q28" s="15">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="Q28" s="19">
+      <c r="R28" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R28" s="20">
+      <c r="S28" s="20">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:19">
       <c r="A29" s="13" t="s">
         <v>74</v>
       </c>
@@ -3688,50 +3722,51 @@
       <c r="E29" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="22">
-        <v>1196295490</v>
-      </c>
+      <c r="F29" s="21"/>
       <c r="G29" s="22">
         <v>1196295490</v>
       </c>
-      <c r="H29" s="21" t="s">
+      <c r="H29" s="22">
+        <v>1196295490</v>
+      </c>
+      <c r="I29" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="I29" s="15">
+      <c r="J29" s="15">
         <v>10</v>
       </c>
-      <c r="J29" s="17">
+      <c r="K29" s="17">
         <v>10000</v>
       </c>
-      <c r="K29" s="18" t="s">
+      <c r="L29" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="L29" s="17">
+      <c r="M29" s="17">
         <v>200</v>
       </c>
-      <c r="M29" s="17">
+      <c r="N29" s="17">
         <v>20</v>
       </c>
-      <c r="N29" s="17">
+      <c r="O29" s="17">
         <v>2</v>
       </c>
-      <c r="O29" s="15">
+      <c r="P29" s="15">
         <v>6</v>
       </c>
-      <c r="P29" s="15">
+      <c r="Q29" s="15">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="Q29" s="19">
+      <c r="R29" s="19">
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="R29" s="20">
+      <c r="S29" s="20">
         <f t="shared" si="2"/>
         <v>9.6</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:19">
       <c r="A30" s="13" t="s">
         <v>77</v>
       </c>
@@ -3743,50 +3778,51 @@
       <c r="E30" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="22">
-        <v>1196295522</v>
-      </c>
+      <c r="F30" s="21"/>
       <c r="G30" s="22">
         <v>1196295522</v>
       </c>
-      <c r="H30" s="21" t="s">
+      <c r="H30" s="22">
+        <v>1196295522</v>
+      </c>
+      <c r="I30" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="I30" s="15">
+      <c r="J30" s="15">
         <v>10</v>
       </c>
-      <c r="J30" s="17">
+      <c r="K30" s="17">
         <v>10000</v>
       </c>
-      <c r="K30" s="18" t="s">
+      <c r="L30" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="L30" s="17">
+      <c r="M30" s="17">
         <v>200</v>
       </c>
-      <c r="M30" s="17">
+      <c r="N30" s="17">
         <v>50</v>
       </c>
-      <c r="N30" s="17">
+      <c r="O30" s="17">
         <v>2</v>
       </c>
-      <c r="O30" s="15">
+      <c r="P30" s="15">
         <v>6</v>
       </c>
-      <c r="P30" s="15">
+      <c r="Q30" s="15">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="Q30" s="19">
+      <c r="R30" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R30" s="20">
+      <c r="S30" s="20">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:19">
       <c r="A31" s="13" t="s">
         <v>80</v>
       </c>
@@ -3798,50 +3834,51 @@
       <c r="E31" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="22">
-        <v>1196295506</v>
-      </c>
+      <c r="F31" s="21"/>
       <c r="G31" s="22">
         <v>1196295506</v>
       </c>
-      <c r="H31" s="21" t="s">
+      <c r="H31" s="22">
+        <v>1196295506</v>
+      </c>
+      <c r="I31" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="I31" s="15">
+      <c r="J31" s="15">
         <v>10</v>
       </c>
-      <c r="J31" s="17">
+      <c r="K31" s="17">
         <v>10000</v>
       </c>
-      <c r="K31" s="18" t="s">
+      <c r="L31" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="L31" s="17">
+      <c r="M31" s="17">
         <v>200</v>
       </c>
-      <c r="M31" s="17">
+      <c r="N31" s="17">
         <v>50</v>
       </c>
-      <c r="N31" s="17">
+      <c r="O31" s="17">
         <v>2</v>
       </c>
-      <c r="O31" s="15">
+      <c r="P31" s="15">
         <v>6</v>
       </c>
-      <c r="P31" s="15">
+      <c r="Q31" s="15">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="Q31" s="19">
+      <c r="R31" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R31" s="20">
+      <c r="S31" s="20">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:19">
       <c r="A32" s="13" t="s">
         <v>83</v>
       </c>
@@ -3853,50 +3890,51 @@
       <c r="E32" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="22">
-        <v>1196295513</v>
-      </c>
+      <c r="F32" s="21"/>
       <c r="G32" s="22">
         <v>1196295513</v>
       </c>
-      <c r="H32" s="21" t="s">
+      <c r="H32" s="22">
+        <v>1196295513</v>
+      </c>
+      <c r="I32" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="I32" s="15">
+      <c r="J32" s="15">
         <v>10</v>
       </c>
-      <c r="J32" s="17">
+      <c r="K32" s="17">
         <v>10000</v>
       </c>
-      <c r="K32" s="18" t="s">
+      <c r="L32" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="L32" s="17">
+      <c r="M32" s="17">
         <v>200</v>
       </c>
-      <c r="M32" s="17">
+      <c r="N32" s="17">
         <v>50</v>
       </c>
-      <c r="N32" s="17">
+      <c r="O32" s="17">
         <v>2</v>
       </c>
-      <c r="O32" s="15">
+      <c r="P32" s="15">
         <v>6</v>
       </c>
-      <c r="P32" s="15">
+      <c r="Q32" s="15">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="Q32" s="19">
+      <c r="R32" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R32" s="20">
+      <c r="S32" s="20">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:19">
       <c r="A33" s="37" t="s">
         <v>18</v>
       </c>
@@ -3910,51 +3948,52 @@
       <c r="E33" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="39">
-        <v>1206274707</v>
-      </c>
+      <c r="F33" s="38"/>
       <c r="G33" s="39">
         <v>1206274707</v>
       </c>
-      <c r="H33" s="38" t="s">
+      <c r="H33" s="39">
+        <v>1206274707</v>
+      </c>
+      <c r="I33" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I33" s="39">
+      <c r="J33" s="39">
         <v>10</v>
       </c>
-      <c r="J33" s="41">
-        <f>I33*1000</f>
+      <c r="K33" s="41">
+        <f>J33*1000</f>
         <v>10000</v>
       </c>
-      <c r="K33" s="42" t="s">
+      <c r="L33" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="L33" s="41">
+      <c r="M33" s="41">
         <v>200</v>
       </c>
-      <c r="M33" s="41">
+      <c r="N33" s="41">
         <v>50</v>
       </c>
-      <c r="N33" s="41">
+      <c r="O33" s="41">
         <v>2</v>
       </c>
-      <c r="O33" s="39">
+      <c r="P33" s="39">
         <v>6</v>
       </c>
-      <c r="P33" s="39">
+      <c r="Q33" s="39">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="Q33" s="43">
+      <c r="R33" s="43">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R33" s="44">
+      <c r="S33" s="44">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:19">
       <c r="A34" s="45" t="s">
         <v>68</v>
       </c>
@@ -3968,50 +4007,51 @@
       <c r="E34" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="47">
-        <v>1196295474</v>
-      </c>
+      <c r="F34" s="64"/>
       <c r="G34" s="47">
         <v>1196295474</v>
       </c>
-      <c r="H34" s="64" t="s">
+      <c r="H34" s="47">
+        <v>1196295474</v>
+      </c>
+      <c r="I34" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="I34" s="47">
+      <c r="J34" s="47">
         <v>10</v>
       </c>
-      <c r="J34" s="51">
+      <c r="K34" s="51">
         <v>10000</v>
       </c>
-      <c r="K34" s="52" t="s">
+      <c r="L34" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="L34" s="51">
+      <c r="M34" s="51">
         <v>200</v>
       </c>
-      <c r="M34" s="51">
+      <c r="N34" s="51">
         <v>50</v>
       </c>
-      <c r="N34" s="51">
+      <c r="O34" s="51">
         <v>2</v>
       </c>
-      <c r="O34" s="47">
+      <c r="P34" s="47">
         <v>6</v>
       </c>
-      <c r="P34" s="47">
+      <c r="Q34" s="47">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="Q34" s="53">
+      <c r="R34" s="53">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R34" s="54">
+      <c r="S34" s="54">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:19">
       <c r="A35" s="55" t="s">
         <v>70</v>
       </c>
@@ -4023,50 +4063,51 @@
       <c r="E35" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F35" s="22">
-        <v>1196295482</v>
-      </c>
+      <c r="F35" s="21"/>
       <c r="G35" s="22">
         <v>1196295482</v>
       </c>
-      <c r="H35" s="21" t="s">
+      <c r="H35" s="22">
+        <v>1196295482</v>
+      </c>
+      <c r="I35" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="I35" s="15">
+      <c r="J35" s="15">
         <v>10</v>
       </c>
-      <c r="J35" s="17">
+      <c r="K35" s="17">
         <v>10000</v>
       </c>
-      <c r="K35" s="18" t="s">
+      <c r="L35" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="L35" s="17">
+      <c r="M35" s="17">
         <v>200</v>
       </c>
-      <c r="M35" s="17">
+      <c r="N35" s="17">
         <v>50</v>
       </c>
-      <c r="N35" s="17">
+      <c r="O35" s="17">
         <v>2</v>
       </c>
-      <c r="O35" s="15">
+      <c r="P35" s="15">
         <v>6</v>
       </c>
-      <c r="P35" s="15">
+      <c r="Q35" s="15">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="Q35" s="19">
+      <c r="R35" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R35" s="56">
+      <c r="S35" s="56">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:19">
       <c r="A36" s="55" t="s">
         <v>18</v>
       </c>
@@ -4080,51 +4121,52 @@
       <c r="E36" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F36" s="15">
-        <v>1206274707</v>
-      </c>
+      <c r="F36" s="14"/>
       <c r="G36" s="15">
         <v>1206274707</v>
       </c>
-      <c r="H36" s="14" t="s">
+      <c r="H36" s="15">
+        <v>1206274707</v>
+      </c>
+      <c r="I36" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I36" s="15">
+      <c r="J36" s="15">
         <v>10</v>
       </c>
-      <c r="J36" s="17">
-        <f>I36*1000</f>
+      <c r="K36" s="17">
+        <f>J36*1000</f>
         <v>10000</v>
       </c>
-      <c r="K36" s="18" t="s">
+      <c r="L36" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="L36" s="17">
+      <c r="M36" s="17">
         <v>200</v>
       </c>
-      <c r="M36" s="17">
+      <c r="N36" s="17">
         <v>50</v>
       </c>
-      <c r="N36" s="17">
+      <c r="O36" s="17">
         <v>2</v>
       </c>
-      <c r="O36" s="15">
+      <c r="P36" s="15">
         <v>6</v>
       </c>
-      <c r="P36" s="15">
+      <c r="Q36" s="15">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="Q36" s="19">
+      <c r="R36" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R36" s="56">
+      <c r="S36" s="56">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:19">
       <c r="A37" s="55" t="s">
         <v>74</v>
       </c>
@@ -4136,50 +4178,51 @@
       <c r="E37" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="22">
-        <v>1196295490</v>
-      </c>
+      <c r="F37" s="21"/>
       <c r="G37" s="22">
         <v>1196295490</v>
       </c>
-      <c r="H37" s="21" t="s">
+      <c r="H37" s="22">
+        <v>1196295490</v>
+      </c>
+      <c r="I37" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="I37" s="15">
+      <c r="J37" s="15">
         <v>10</v>
       </c>
-      <c r="J37" s="17">
+      <c r="K37" s="17">
         <v>10000</v>
       </c>
-      <c r="K37" s="18" t="s">
+      <c r="L37" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="L37" s="17">
+      <c r="M37" s="17">
         <v>200</v>
       </c>
-      <c r="M37" s="17">
+      <c r="N37" s="17">
         <v>50</v>
       </c>
-      <c r="N37" s="17">
+      <c r="O37" s="17">
         <v>2</v>
       </c>
-      <c r="O37" s="15">
+      <c r="P37" s="15">
         <v>6</v>
       </c>
-      <c r="P37" s="15">
+      <c r="Q37" s="15">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="Q37" s="19">
+      <c r="R37" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R37" s="56">
+      <c r="S37" s="56">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:19">
       <c r="A38" s="55" t="s">
         <v>77</v>
       </c>
@@ -4191,50 +4234,51 @@
       <c r="E38" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F38" s="22">
-        <v>1196295522</v>
-      </c>
+      <c r="F38" s="21"/>
       <c r="G38" s="22">
         <v>1196295522</v>
       </c>
-      <c r="H38" s="21" t="s">
+      <c r="H38" s="22">
+        <v>1196295522</v>
+      </c>
+      <c r="I38" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="I38" s="15">
+      <c r="J38" s="15">
         <v>10</v>
       </c>
-      <c r="J38" s="17">
+      <c r="K38" s="17">
         <v>10000</v>
       </c>
-      <c r="K38" s="18" t="s">
+      <c r="L38" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="L38" s="17">
+      <c r="M38" s="17">
         <v>200</v>
       </c>
-      <c r="M38" s="17">
+      <c r="N38" s="17">
         <v>20</v>
       </c>
-      <c r="N38" s="17">
+      <c r="O38" s="17">
         <v>2</v>
       </c>
-      <c r="O38" s="15">
+      <c r="P38" s="15">
         <v>6</v>
       </c>
-      <c r="P38" s="15">
+      <c r="Q38" s="15">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="Q38" s="19">
+      <c r="R38" s="19">
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="R38" s="56">
+      <c r="S38" s="56">
         <f t="shared" si="2"/>
         <v>9.6</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:19">
       <c r="A39" s="55" t="s">
         <v>80</v>
       </c>
@@ -4246,50 +4290,51 @@
       <c r="E39" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F39" s="22">
-        <v>1196295506</v>
-      </c>
+      <c r="F39" s="21"/>
       <c r="G39" s="22">
         <v>1196295506</v>
       </c>
-      <c r="H39" s="21" t="s">
+      <c r="H39" s="22">
+        <v>1196295506</v>
+      </c>
+      <c r="I39" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="I39" s="15">
+      <c r="J39" s="15">
         <v>10</v>
       </c>
-      <c r="J39" s="17">
+      <c r="K39" s="17">
         <v>10000</v>
       </c>
-      <c r="K39" s="18" t="s">
+      <c r="L39" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="L39" s="17">
+      <c r="M39" s="17">
         <v>200</v>
       </c>
-      <c r="M39" s="17">
+      <c r="N39" s="17">
         <v>50</v>
       </c>
-      <c r="N39" s="17">
+      <c r="O39" s="17">
         <v>2</v>
       </c>
-      <c r="O39" s="15">
+      <c r="P39" s="15">
         <v>6</v>
       </c>
-      <c r="P39" s="15">
+      <c r="Q39" s="15">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="Q39" s="19">
+      <c r="R39" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R39" s="56">
+      <c r="S39" s="56">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:19">
       <c r="A40" s="55" t="s">
         <v>83</v>
       </c>
@@ -4301,50 +4346,51 @@
       <c r="E40" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F40" s="22">
-        <v>1196295513</v>
-      </c>
+      <c r="F40" s="21"/>
       <c r="G40" s="22">
         <v>1196295513</v>
       </c>
-      <c r="H40" s="21" t="s">
+      <c r="H40" s="22">
+        <v>1196295513</v>
+      </c>
+      <c r="I40" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="I40" s="15">
+      <c r="J40" s="15">
         <v>10</v>
       </c>
-      <c r="J40" s="17">
+      <c r="K40" s="17">
         <v>10000</v>
       </c>
-      <c r="K40" s="18" t="s">
+      <c r="L40" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="L40" s="17">
+      <c r="M40" s="17">
         <v>200</v>
       </c>
-      <c r="M40" s="17">
+      <c r="N40" s="17">
         <v>50</v>
       </c>
-      <c r="N40" s="17">
+      <c r="O40" s="17">
         <v>2</v>
       </c>
-      <c r="O40" s="15">
+      <c r="P40" s="15">
         <v>6</v>
       </c>
-      <c r="P40" s="15">
+      <c r="Q40" s="15">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="Q40" s="19">
+      <c r="R40" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R40" s="56">
+      <c r="S40" s="56">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:19">
       <c r="A41" s="57" t="s">
         <v>18</v>
       </c>
@@ -4358,51 +4404,52 @@
       <c r="E41" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="F41" s="39">
-        <v>1206274707</v>
-      </c>
+      <c r="F41" s="38"/>
       <c r="G41" s="39">
         <v>1206274707</v>
       </c>
-      <c r="H41" s="38" t="s">
+      <c r="H41" s="39">
+        <v>1206274707</v>
+      </c>
+      <c r="I41" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I41" s="39">
+      <c r="J41" s="39">
         <v>10</v>
       </c>
-      <c r="J41" s="41">
-        <f>I41*1000</f>
+      <c r="K41" s="41">
+        <f>J41*1000</f>
         <v>10000</v>
       </c>
-      <c r="K41" s="42" t="s">
+      <c r="L41" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="L41" s="41">
+      <c r="M41" s="41">
         <v>200</v>
       </c>
-      <c r="M41" s="41">
+      <c r="N41" s="41">
         <v>50</v>
       </c>
-      <c r="N41" s="41">
+      <c r="O41" s="41">
         <v>2</v>
       </c>
-      <c r="O41" s="39">
+      <c r="P41" s="39">
         <v>6</v>
       </c>
-      <c r="P41" s="39">
+      <c r="Q41" s="39">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="Q41" s="43">
+      <c r="R41" s="43">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R41" s="62">
+      <c r="S41" s="62">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:19">
       <c r="A42" s="45" t="s">
         <v>49</v>
       </c>
@@ -4414,50 +4461,51 @@
       <c r="E42" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="F42" s="50">
-        <v>1196295451</v>
-      </c>
+      <c r="F42" s="49"/>
       <c r="G42" s="50">
         <v>1196295451</v>
       </c>
-      <c r="H42" s="49" t="s">
+      <c r="H42" s="50">
+        <v>1196295451</v>
+      </c>
+      <c r="I42" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="I42" s="47">
+      <c r="J42" s="47">
         <v>10</v>
       </c>
-      <c r="J42" s="51">
+      <c r="K42" s="51">
         <v>10000</v>
       </c>
-      <c r="K42" s="52" t="s">
+      <c r="L42" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="L42" s="51">
+      <c r="M42" s="51">
         <v>200</v>
       </c>
-      <c r="M42" s="51">
+      <c r="N42" s="51">
         <v>50</v>
       </c>
-      <c r="N42" s="51">
+      <c r="O42" s="51">
         <v>2</v>
       </c>
-      <c r="O42" s="47">
+      <c r="P42" s="47">
         <v>6</v>
       </c>
-      <c r="P42" s="47">
+      <c r="Q42" s="47">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="Q42" s="53">
+      <c r="R42" s="53">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R42" s="54">
+      <c r="S42" s="54">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:19">
       <c r="A43" s="55" t="s">
         <v>53</v>
       </c>
@@ -4469,50 +4517,51 @@
       <c r="E43" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F43" s="22">
-        <v>1196295459</v>
-      </c>
+      <c r="F43" s="21"/>
       <c r="G43" s="22">
         <v>1196295459</v>
       </c>
-      <c r="H43" s="21" t="s">
+      <c r="H43" s="22">
+        <v>1196295459</v>
+      </c>
+      <c r="I43" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="I43" s="15">
+      <c r="J43" s="15">
         <v>10</v>
       </c>
-      <c r="J43" s="17">
+      <c r="K43" s="17">
         <v>10000</v>
       </c>
-      <c r="K43" s="18" t="s">
+      <c r="L43" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="L43" s="17">
+      <c r="M43" s="17">
         <v>200</v>
       </c>
-      <c r="M43" s="17">
+      <c r="N43" s="17">
         <v>50</v>
       </c>
-      <c r="N43" s="17">
+      <c r="O43" s="17">
         <v>2</v>
       </c>
-      <c r="O43" s="15">
+      <c r="P43" s="15">
         <v>6</v>
       </c>
-      <c r="P43" s="15">
+      <c r="Q43" s="15">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="Q43" s="19">
+      <c r="R43" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R43" s="56">
+      <c r="S43" s="56">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:19">
       <c r="A44" s="55" t="s">
         <v>18</v>
       </c>
@@ -4526,51 +4575,52 @@
       <c r="E44" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F44" s="15">
-        <v>1206274707</v>
-      </c>
+      <c r="F44" s="14"/>
       <c r="G44" s="15">
         <v>1206274707</v>
       </c>
-      <c r="H44" s="14" t="s">
+      <c r="H44" s="15">
+        <v>1206274707</v>
+      </c>
+      <c r="I44" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I44" s="15">
+      <c r="J44" s="15">
         <v>10</v>
       </c>
-      <c r="J44" s="17">
-        <f>I44*1000</f>
+      <c r="K44" s="17">
+        <f>J44*1000</f>
         <v>10000</v>
       </c>
-      <c r="K44" s="18" t="s">
+      <c r="L44" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="L44" s="17">
+      <c r="M44" s="17">
         <v>200</v>
       </c>
-      <c r="M44" s="17">
+      <c r="N44" s="17">
         <v>50</v>
       </c>
-      <c r="N44" s="17">
+      <c r="O44" s="17">
         <v>2</v>
       </c>
-      <c r="O44" s="15">
+      <c r="P44" s="15">
         <v>6</v>
       </c>
-      <c r="P44" s="15">
+      <c r="Q44" s="15">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="Q44" s="19">
+      <c r="R44" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R44" s="56">
+      <c r="S44" s="56">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:19">
       <c r="A45" s="55" t="s">
         <v>46</v>
       </c>
@@ -4582,50 +4632,51 @@
       <c r="E45" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F45" s="22">
-        <v>1196295443</v>
-      </c>
+      <c r="F45" s="21"/>
       <c r="G45" s="22">
         <v>1196295443</v>
       </c>
-      <c r="H45" s="21" t="s">
+      <c r="H45" s="22">
+        <v>1196295443</v>
+      </c>
+      <c r="I45" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="I45" s="15">
+      <c r="J45" s="15">
         <v>10</v>
       </c>
-      <c r="J45" s="17">
+      <c r="K45" s="17">
         <v>10000</v>
       </c>
-      <c r="K45" s="18" t="s">
+      <c r="L45" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="L45" s="17">
+      <c r="M45" s="17">
         <v>200</v>
       </c>
-      <c r="M45" s="17">
+      <c r="N45" s="17">
         <v>50</v>
       </c>
-      <c r="N45" s="17">
+      <c r="O45" s="17">
         <v>2</v>
       </c>
-      <c r="O45" s="15">
+      <c r="P45" s="15">
         <v>6</v>
       </c>
-      <c r="P45" s="15">
+      <c r="Q45" s="15">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="Q45" s="19">
+      <c r="R45" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R45" s="56">
+      <c r="S45" s="56">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:19">
       <c r="A46" s="55" t="s">
         <v>49</v>
       </c>
@@ -4637,50 +4688,51 @@
       <c r="E46" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F46" s="22">
-        <v>1196295451</v>
-      </c>
+      <c r="F46" s="21"/>
       <c r="G46" s="22">
         <v>1196295451</v>
       </c>
-      <c r="H46" s="21" t="s">
+      <c r="H46" s="22">
+        <v>1196295451</v>
+      </c>
+      <c r="I46" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="I46" s="15">
+      <c r="J46" s="15">
         <v>10</v>
       </c>
-      <c r="J46" s="17">
+      <c r="K46" s="17">
         <v>10000</v>
       </c>
-      <c r="K46" s="18" t="s">
+      <c r="L46" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="L46" s="17">
+      <c r="M46" s="17">
         <v>200</v>
       </c>
-      <c r="M46" s="17">
+      <c r="N46" s="17">
         <v>50</v>
       </c>
-      <c r="N46" s="17">
+      <c r="O46" s="17">
         <v>2</v>
       </c>
-      <c r="O46" s="15">
+      <c r="P46" s="15">
         <v>6</v>
       </c>
-      <c r="P46" s="15">
+      <c r="Q46" s="15">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="Q46" s="19">
+      <c r="R46" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R46" s="56">
+      <c r="S46" s="56">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:19">
       <c r="A47" s="55" t="s">
         <v>53</v>
       </c>
@@ -4692,50 +4744,51 @@
       <c r="E47" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F47" s="22">
-        <v>1196295459</v>
-      </c>
+      <c r="F47" s="21"/>
       <c r="G47" s="22">
         <v>1196295459</v>
       </c>
-      <c r="H47" s="21" t="s">
+      <c r="H47" s="22">
+        <v>1196295459</v>
+      </c>
+      <c r="I47" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="I47" s="15">
+      <c r="J47" s="15">
         <v>10</v>
       </c>
-      <c r="J47" s="17">
+      <c r="K47" s="17">
         <v>10000</v>
       </c>
-      <c r="K47" s="18" t="s">
+      <c r="L47" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="L47" s="17">
+      <c r="M47" s="17">
         <v>200</v>
       </c>
-      <c r="M47" s="17">
+      <c r="N47" s="17">
         <v>20</v>
       </c>
-      <c r="N47" s="17">
+      <c r="O47" s="17">
         <v>2</v>
       </c>
-      <c r="O47" s="15">
+      <c r="P47" s="15">
         <v>6</v>
       </c>
-      <c r="P47" s="15">
+      <c r="Q47" s="15">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="Q47" s="19">
+      <c r="R47" s="19">
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="R47" s="56">
+      <c r="S47" s="56">
         <f t="shared" si="2"/>
         <v>9.6</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:19">
       <c r="A48" s="55" t="s">
         <v>18</v>
       </c>
@@ -4749,51 +4802,52 @@
       <c r="E48" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F48" s="15">
-        <v>1206274707</v>
-      </c>
+      <c r="F48" s="14"/>
       <c r="G48" s="15">
         <v>1206274707</v>
       </c>
-      <c r="H48" s="14" t="s">
+      <c r="H48" s="15">
+        <v>1206274707</v>
+      </c>
+      <c r="I48" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I48" s="15">
+      <c r="J48" s="15">
         <v>10</v>
       </c>
-      <c r="J48" s="17">
-        <f>I48*1000</f>
+      <c r="K48" s="17">
+        <f>J48*1000</f>
         <v>10000</v>
       </c>
-      <c r="K48" s="18" t="s">
+      <c r="L48" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="L48" s="17">
+      <c r="M48" s="17">
         <v>200</v>
       </c>
-      <c r="M48" s="17">
+      <c r="N48" s="17">
         <v>50</v>
       </c>
-      <c r="N48" s="17">
+      <c r="O48" s="17">
         <v>2</v>
       </c>
-      <c r="O48" s="15">
+      <c r="P48" s="15">
         <v>6</v>
       </c>
-      <c r="P48" s="15">
+      <c r="Q48" s="15">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="Q48" s="19">
+      <c r="R48" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R48" s="56">
+      <c r="S48" s="56">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:19">
       <c r="A49" s="55" t="s">
         <v>53</v>
       </c>
@@ -4805,45 +4859,46 @@
       <c r="E49" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F49" s="22">
-        <v>1196295459</v>
-      </c>
+      <c r="F49" s="21"/>
       <c r="G49" s="22">
         <v>1196295459</v>
       </c>
-      <c r="H49" s="21" t="s">
+      <c r="H49" s="22">
+        <v>1196295459</v>
+      </c>
+      <c r="I49" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="I49" s="15">
+      <c r="J49" s="15">
         <v>10</v>
       </c>
-      <c r="J49" s="17">
+      <c r="K49" s="17">
         <v>10000</v>
       </c>
-      <c r="K49" s="18" t="s">
+      <c r="L49" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="L49" s="17">
+      <c r="M49" s="17">
         <v>200</v>
       </c>
-      <c r="M49" s="17">
+      <c r="N49" s="17">
         <v>50</v>
       </c>
-      <c r="N49" s="17">
+      <c r="O49" s="17">
         <v>2</v>
       </c>
-      <c r="O49" s="15">
+      <c r="P49" s="15">
         <v>6</v>
       </c>
-      <c r="P49" s="15">
+      <c r="Q49" s="15">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="Q49" s="19">
+      <c r="R49" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R49" s="56">
+      <c r="S49" s="56">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
